--- a/汉字音译表.xlsx
+++ b/汉字音译表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\My Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D46B0A8-0F1B-4BFD-B892-057C0EA02F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C9985B-32CC-49E3-BA53-66F3041EE618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>'</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,14 @@
   </si>
   <si>
     <t>枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,6 +893,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,27 +936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,7 +1224,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1225,89 +1233,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="36" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="36" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="29" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="29" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="29" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="29" t="s">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="29" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="29" t="s">
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="29" t="s">
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="29" t="s">
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="31"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="38"/>
     </row>
     <row r="2" spans="1:57" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -1453,7 +1461,7 @@
       </c>
     </row>
     <row r="3" spans="1:57" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="6"/>
@@ -1497,7 +1505,9 @@
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
+      <c r="S3" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="11"/>
@@ -1544,7 +1554,7 @@
       <c r="BE3" s="11"/>
     </row>
     <row r="4" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1570,7 @@
       <c r="F4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="31" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1582,7 +1592,9 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
+      <c r="S4" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="15"/>
@@ -1629,7 +1641,7 @@
       <c r="BE4" s="15"/>
     </row>
     <row r="5" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1657,7 @@
       <c r="F5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>74</v>
@@ -1700,7 +1712,7 @@
       <c r="BE5" s="15"/>
     </row>
     <row r="6" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1769,7 +1781,7 @@
       <c r="BE6" s="15"/>
     </row>
     <row r="7" spans="1:57" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1838,7 +1850,7 @@
       <c r="BE7" s="19"/>
     </row>
     <row r="8" spans="1:57" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6"/>
@@ -1907,7 +1919,7 @@
       <c r="BE8" s="11"/>
     </row>
     <row r="9" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1974,7 +1986,7 @@
       <c r="BE9" s="15"/>
     </row>
     <row r="10" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2039,7 +2051,7 @@
       <c r="BE10" s="15"/>
     </row>
     <row r="11" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2112,7 @@
       <c r="BE11" s="22"/>
     </row>
     <row r="12" spans="1:57" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2165,7 +2177,7 @@
       <c r="BE12" s="19"/>
     </row>
     <row r="13" spans="1:57" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6"/>
@@ -2230,7 +2242,7 @@
       <c r="BE13" s="11"/>
     </row>
     <row r="14" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2293,7 +2305,7 @@
       <c r="BE14" s="15"/>
     </row>
     <row r="15" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2354,7 +2366,7 @@
       <c r="BE15" s="15"/>
     </row>
     <row r="16" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2427,7 @@
       <c r="BE16" s="22"/>
     </row>
     <row r="17" spans="1:57" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
@@ -2476,7 +2488,7 @@
       <c r="BE17" s="19"/>
     </row>
     <row r="18" spans="1:57" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6"/>
@@ -2541,7 +2553,7 @@
       <c r="BE18" s="24"/>
     </row>
     <row r="19" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2608,7 +2620,7 @@
       <c r="BE19" s="22"/>
     </row>
     <row r="20" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2671,7 +2683,7 @@
       <c r="BE20" s="22"/>
     </row>
     <row r="21" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2746,7 @@
       <c r="BE21" s="22"/>
     </row>
     <row r="22" spans="1:57" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2807,7 @@
       <c r="BE22" s="19"/>
     </row>
     <row r="23" spans="1:57" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="6"/>
@@ -2862,7 +2874,7 @@
       <c r="BE23" s="23"/>
     </row>
     <row r="24" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
@@ -2925,7 +2937,7 @@
       <c r="BE24" s="27"/>
     </row>
     <row r="25" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2986,7 +2998,7 @@
       <c r="BE25" s="27"/>
     </row>
     <row r="26" spans="1:57" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3059,7 @@
       <c r="BE26" s="27"/>
     </row>
     <row r="27" spans="1:57" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
@@ -3108,10 +3120,10 @@
       <c r="BE27" s="19"/>
     </row>
     <row r="28" spans="1:57" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -3347,13 +3359,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="A1:B2"/>
@@ -3366,6 +3371,13 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
